--- a/senai/src/aula14/vendas/padrao/Vendas.xlsx
+++ b/senai/src/aula14/vendas/padrao/Vendas.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25822"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\sop\aula07\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15F7F8A-F5D3-49CF-B2EC-17B1227D8602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4793568B-1CC3-4831-8493-05EBFE9605AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E25AB76-A024-4D35-838B-97A2176E06C2}"/>
   </bookViews>
@@ -16,17 +11,10 @@
     <sheet name="padrao" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -199,26 +187,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -537,24 +528,24 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -563,226 +554,226 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="11">
         <v>15.5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="11">
         <f>B3*C3</f>
         <v>77.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="12">
         <v>25.5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="12">
         <f t="shared" ref="D4:D12" si="0">B4*C4</f>
         <v>76.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="12">
         <v>35.5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="12">
         <v>18</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="12">
         <v>8.99</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>107.88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="12">
         <v>8.99</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>71.92</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>10</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="12">
         <v>8.99</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>89.9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="12">
         <v>350.5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="12">
         <v>255.9</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>511.8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="13">
         <v>435.5</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>1306.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14">
         <f>SUM(D3:D12)</f>
         <v>3751</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="14">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15">
         <f>AVERAGE(C3:C12)</f>
         <v>116.33699999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <f>MAX(C3:C12)</f>
         <v>435.5</v>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="15" t="str">
         <f>LOOKUP(C16,C3:C12,A3:A12)</f>
         <v>SerraMarmore</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <f>MIN(C3:C12)</f>
         <v>8.99</v>
       </c>
-      <c r="D17" s="11" t="str">
+      <c r="D17" s="15" t="str">
         <f>LOOKUP(C17,C3:C12,A3:A12)</f>
         <v>ChavePhilips</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="16">
         <f>MAX(B3:B12)</f>
         <v>12</v>
       </c>
-      <c r="D18" s="12" t="str">
+      <c r="D18" s="16" t="str">
         <f>LOOKUP(C18,B3:B12,A3:A12)</f>
         <v>ChaveFenda</v>
       </c>

--- a/senai/src/aula14/vendas/padrao/Vendas.xlsx
+++ b/senai/src/aula14/vendas/padrao/Vendas.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4793568B-1CC3-4831-8493-05EBFE9605AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Isaac\GitHub\java\senai\src\aula14\vendas\padrao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD74684-2D25-4FFB-BFE8-36FF6188726B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E25AB76-A024-4D35-838B-97A2176E06C2}"/>
+    <workbookView xWindow="10425" yWindow="855" windowWidth="15450" windowHeight="11385" xr2:uid="{9E25AB76-A024-4D35-838B-97A2176E06C2}"/>
   </bookViews>
   <sheets>
     <sheet name="padrao" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -187,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -196,20 +200,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -229,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -517,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,24 +527,24 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E18" sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -554,10 +553,10 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -568,10 +567,10 @@
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>15.5</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <f>B3*C3</f>
         <v>77.5</v>
       </c>
@@ -583,10 +582,10 @@
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>25.5</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <f t="shared" ref="D4:D12" si="0">B4*C4</f>
         <v>76.5</v>
       </c>
@@ -598,10 +597,10 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>35.5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
@@ -613,10 +612,10 @@
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>18</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -628,10 +627,10 @@
       <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>8.99</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>107.88</v>
       </c>
@@ -643,10 +642,10 @@
       <c r="B8" s="3">
         <v>8</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>8.99</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>71.92</v>
       </c>
@@ -658,10 +657,10 @@
       <c r="B9" s="3">
         <v>10</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>8.99</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>89.9</v>
       </c>
@@ -673,10 +672,10 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>350.5</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
@@ -688,10 +687,10 @@
       <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>255.9</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>511.8</v>
       </c>
@@ -703,28 +702,28 @@
       <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>435.5</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>1306.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <f>SUM(D3:D12)</f>
         <v>3751</v>
       </c>
@@ -733,8 +732,8 @@
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
         <f>AVERAGE(C3:C12)</f>
         <v>116.33699999999999</v>
       </c>
@@ -743,11 +742,11 @@
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="6">
         <f>MAX(C3:C12)</f>
         <v>435.5</v>
       </c>
-      <c r="D16" s="15" t="str">
+      <c r="D16" s="6" t="str">
         <f>LOOKUP(C16,C3:C12,A3:A12)</f>
         <v>SerraMarmore</v>
       </c>
@@ -756,11 +755,11 @@
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="6">
         <f>MIN(C3:C12)</f>
         <v>8.99</v>
       </c>
-      <c r="D17" s="15" t="str">
+      <c r="D17" s="6" t="str">
         <f>LOOKUP(C17,C3:C12,A3:A12)</f>
         <v>ChavePhilips</v>
       </c>
@@ -769,11 +768,11 @@
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="7">
         <f>MAX(B3:B12)</f>
         <v>12</v>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="7" t="str">
         <f>LOOKUP(C18,B3:B12,A3:A12)</f>
         <v>ChaveFenda</v>
       </c>
